--- a/sourceFile/PEBOOK_3.0  分析工具（业务蓝图 +财务分析+问卷清单 +估值模板等）.xlsx
+++ b/sourceFile/PEBOOK_3.0  分析工具（业务蓝图 +财务分析+问卷清单 +估值模板等）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="860" firstSheet="15" activeTab="20"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="860" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="1.1 核心员工家谱" sheetId="13" r:id="rId1"/>
@@ -28715,8 +28715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -28793,26 +28793,18 @@
         <v>-100</v>
       </c>
       <c r="D11" s="243">
+        <v>80</v>
+      </c>
+      <c r="E11" s="243">
         <v>40</v>
       </c>
-      <c r="E11" s="243">
-        <v>15</v>
-      </c>
-      <c r="F11" s="243">
-        <v>20</v>
-      </c>
-      <c r="G11" s="243">
-        <v>30</v>
-      </c>
-      <c r="H11" s="243">
-        <v>45</v>
-      </c>
-      <c r="I11" s="243">
-        <v>50</v>
-      </c>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
       <c r="J11" s="242">
         <f>IRR(C11:I11)</f>
-        <v>0.21704959326217566</v>
+        <v>0.14833147735478769</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -31104,7 +31096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
